--- a/Shiny/Dati/CCF.xlsx
+++ b/Shiny/Dati/CCF.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61EE7B94-EEFA-4398-BB89-C539E851B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF6ADB-9470-41D2-A726-D3DC3B2A0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{19C16112-EFAB-400B-8BFC-0464FDBFE64A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{19C16112-EFAB-400B-8BFC-0464FDBFE64A}"/>
   </bookViews>
   <sheets>
     <sheet name="CCF" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Exp#</t>
   </si>
@@ -49,10 +50,43 @@
     <t>Temp</t>
   </si>
   <si>
-    <t>%A</t>
-  </si>
-  <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>Fattori, abbreviazione</t>
+  </si>
+  <si>
+    <t>Unità di misura</t>
+  </si>
+  <si>
+    <t>Livello minimo (codificato -1)</t>
+  </si>
+  <si>
+    <t>Livello Centrale (codificato 0)</t>
+  </si>
+  <si>
+    <t>Livello massimo (codificato +1)</t>
+  </si>
+  <si>
+    <t>Temperatura, T</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Ingrediente A, A</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Variabile</t>
   </si>
 </sst>
 </file>
@@ -176,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -186,9 +220,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,7 +259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,13 +557,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163EA34D-282A-4367-81E1-F8AB4F493D4A}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,13 +577,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,7 +603,7 @@
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -568,7 +623,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -588,7 +643,7 @@
         <v>1.996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -608,7 +663,7 @@
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>8</v>
       </c>
@@ -628,7 +683,7 @@
         <v>1.137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>10</v>
       </c>
@@ -648,7 +703,7 @@
         <v>1.3720000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -668,7 +723,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>11</v>
       </c>
@@ -688,7 +743,7 @@
         <v>2.0590000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -708,7 +763,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
@@ -716,7 +771,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -736,7 +791,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
@@ -753,6 +808,292 @@
         <v>20</v>
       </c>
       <c r="F13" s="8">
+        <v>1.165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFA77C9-96D8-464B-9E32-13F27055C755}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="32.140625" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15">
+        <v>40</v>
+      </c>
+      <c r="L2" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>60</v>
+      </c>
+      <c r="D3" s="12">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.056</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10</v>
+      </c>
+      <c r="K3" s="15">
+        <v>20</v>
+      </c>
+      <c r="L3" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12">
+        <v>30</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.2309999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20</v>
+      </c>
+      <c r="D7" s="12">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.3720000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>60</v>
+      </c>
+      <c r="D9" s="12">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.0590000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>40</v>
+      </c>
+      <c r="D12" s="12">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8">
         <v>1.165</v>
       </c>
     </row>
